--- a/perkara2.xlsx
+++ b/perkara2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\sippfirst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A3E74-C695-4498-A328-70C36B8A3ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62AFE8-BA0F-4F31-A1A5-5551ADD5C53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
